--- a/data/trans_camb/IP16A98-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Estudios-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 23,06</t>
+          <t>-32,46; 22,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 17,83</t>
+          <t>-29,18; 19,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 31,4</t>
+          <t>-11,02; 33,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 57,47</t>
+          <t>-4,81; 63,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 18,54</t>
+          <t>-12,89; 20,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 30,98</t>
+          <t>-9,49; 32,99</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 255,37</t>
+          <t>-100,0; 207,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,51; 171,17</t>
+          <t>-81,76; 182,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,59; 584,72</t>
+          <t>-58,73; 542,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 1017,38</t>
+          <t>-51,45; 1324,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,14; 153,57</t>
+          <t>-57,32; 172,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 252,85</t>
+          <t>-44,89; 296,33</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 16,55</t>
+          <t>-3,0; 16,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 17,1</t>
+          <t>-4,25; 15,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 12,78</t>
+          <t>-5,27; 13,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 13,6</t>
+          <t>-5,31; 12,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 12,85</t>
+          <t>-0,68; 11,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 12,43</t>
+          <t>-1,31; 12,29</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 165,45</t>
+          <t>-14,83; 169,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 152,1</t>
+          <t>-24,16; 146,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 139,3</t>
+          <t>-29,65; 152,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 148,15</t>
+          <t>-31,05; 136,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 121,6</t>
+          <t>-5,27; 109,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 109,03</t>
+          <t>-9,58; 106,54</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 19,16</t>
+          <t>-9,17; 21,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 15,37</t>
+          <t>-12,3; 16,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 19,72</t>
+          <t>-6,97; 18,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 22,11</t>
+          <t>-1,27; 22,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 15,16</t>
+          <t>-4,09; 15,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 14,34</t>
+          <t>-3,25; 14,73</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,25; 327,62</t>
+          <t>-56,3; 339,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,31; 219,02</t>
+          <t>-64,82; 231,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 686,09</t>
+          <t>-65,17; 665,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 889,52</t>
+          <t>-18,83; 820,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,45; 233,0</t>
+          <t>-34,21; 218,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 218,36</t>
+          <t>-27,15; 224,71</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 12,41</t>
+          <t>-2,32; 12,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 11,34</t>
+          <t>-3,79; 12,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 11,69</t>
+          <t>-1,94; 11,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 14,58</t>
+          <t>-0,22; 14,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 9,95</t>
+          <t>-0,18; 9,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 11,02</t>
+          <t>-0,01; 10,57</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 104,1</t>
+          <t>-12,22; 107,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 94,06</t>
+          <t>-22,29; 105,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 123,42</t>
+          <t>-14,18; 131,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 162,89</t>
+          <t>-5,41; 167,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 84,9</t>
+          <t>-2,72; 82,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 99,68</t>
+          <t>-0,64; 89,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A98-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36,22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-8,63</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,71</t>
+          <t>-7,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>14,96</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 22,71</t>
+          <t>-10,48; 32,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 19,53</t>
+          <t>-3,65; 79,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 33,13</t>
+          <t>-30,21; 25,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 63,02</t>
+          <t>-31,01; 16,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 20,35</t>
+          <t>-14,87; 18,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 32,99</t>
+          <t>-6,17; 48,24</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>55,83%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>252,87%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-35,11%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-26,45%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>55,83%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>158,55%</t>
+          <t>-29,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>79,98%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 207,11</t>
+          <t>-59,12; 535,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,76; 182,57</t>
+          <t>-32,91; 2300,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 542,84</t>
+          <t>-100,0; 265,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 1324,59</t>
+          <t>-87,14; 161,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 172,74</t>
+          <t>-61,57; 139,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 296,33</t>
+          <t>-36,98; 542,75</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>7,23</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>3,54</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 16,82</t>
+          <t>-4,99; 13,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 15,48</t>
+          <t>-10,55; 9,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 13,02</t>
+          <t>-2,41; 16,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 12,77</t>
+          <t>-2,99; 17,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 11,9</t>
+          <t>-0,84; 12,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 12,29</t>
+          <t>-3,84; 10,17</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>29,88%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>50,59%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>40,53%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>29,88%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>25,64%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 169,46</t>
+          <t>-31,49; 151,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 146,03</t>
+          <t>-59,08; 90,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 152,71</t>
+          <t>-13,76; 168,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 136,28</t>
+          <t>-20,77; 157,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 109,29</t>
+          <t>-5,91; 110,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 106,54</t>
+          <t>-23,28; 84,84</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,57</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4,69</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>5,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 21,32</t>
+          <t>-6,71; 18,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 16,36</t>
+          <t>-1,65; 21,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 18,52</t>
+          <t>-11,08; 20,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 22,37</t>
+          <t>-12,8; 14,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 15,53</t>
+          <t>-4,14; 14,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 14,73</t>
+          <t>-3,76; 15,4</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>71,95%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>135,79%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>34,97%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>71,95%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>134,99%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>49,15%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 339,51</t>
+          <t>-68,68; 581,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,82; 231,42</t>
+          <t>-26,72; 880,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,17; 665,43</t>
+          <t>-61,41; 339,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 820,02</t>
+          <t>-71,09; 231,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 218,03</t>
+          <t>-33,11; 230,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 224,71</t>
+          <t>-27,5; 239,15</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>5,13</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 12,23</t>
+          <t>-1,99; 11,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 12,09</t>
+          <t>-3,29; 15,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 11,83</t>
+          <t>-2,63; 13,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 14,84</t>
+          <t>-4,01; 11,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,88</t>
+          <t>-0,06; 10,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 10,57</t>
+          <t>-0,98; 10,9</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>52,49%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>33,76%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>21,51%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>40,69%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,26%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>34,5%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 107,55</t>
+          <t>-13,87; 132,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 105,12</t>
+          <t>-23,4; 167,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 131,16</t>
+          <t>-14,01; 121,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 167,15</t>
+          <t>-24,07; 99,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 82,39</t>
+          <t>1,52; 87,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 89,63</t>
+          <t>-6,23; 92,75</t>
         </is>
       </c>
     </row>
